--- a/library/inhalation_HC3/AnnexA_ICRP119_dcf_inhal_Worker.xlsx
+++ b/library/inhalation_HC3/AnnexA_ICRP119_dcf_inhal_Worker.xlsx
@@ -1807,7 +1807,7 @@
     <t xml:space="preserve">60.20 d</t>
   </si>
   <si>
-    <t xml:space="preserve">Sb-124m</t>
+    <t xml:space="preserve">Sb-124n</t>
   </si>
   <si>
     <t xml:space="preserve">20.2 m</t>
@@ -5028,11 +5028,11 @@
   </sheetPr>
   <dimension ref="A1:I1416"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11:I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B548" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D562" activeCellId="0" sqref="D562"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.71"/>
